--- a/biology/Médecine/Syndrome_neurogène_périphérique/Syndrome_neurogène_périphérique.xlsx
+++ b/biology/Médecine/Syndrome_neurogène_périphérique/Syndrome_neurogène_périphérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_neurog%C3%A8ne_p%C3%A9riph%C3%A9rique</t>
+          <t>Syndrome_neurogène_périphérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome neurogène périphérique correspond aux symptômes et signes cliniques se manifestant lors des maladies du système nerveux périphérique. Ces symptômes sont liés à l'atteinte du neurone périphérique à partir de son origine (au niveau de la corne antérieure de la moelle épinière (motoneurone), au niveau du ganglion spinal (neurone sensitif) et au niveau des noyaux des nerfs crâniens) jusqu'à sa terminaison (troncs nerveux).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_neurog%C3%A8ne_p%C3%A9riph%C3%A9rique</t>
+          <t>Syndrome_neurogène_périphérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Symptômes et signes cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principaux symptômes sont une faiblesse d'un ou plusieurs membres, souvent accompagnée de troubles sensitifs. Lors de l'examen neurologique, on retrouve en particulier des déficits moteurs et sensitifs, une amyotrophie, des fasciculations ainsi qu'une diminution des réflexes ostéotendineux.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_neurog%C3%A8ne_p%C3%A9riph%C3%A9rique</t>
+          <t>Syndrome_neurogène_périphérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,16 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lésion du neurone moteur
-La lésion est située au niveau de la corne antérieure de la moelle. Elle réalise un syndrome neurogène périphérique dit « moteur pur ». Il associe  des crampes et des fasciculations. Ces fasciculations témoignent en général d'une dégénérescence du corps cellulaire au niveau de la corne antérieure de la moelle.
-Lésion du neurone sensitif
-La lésion est située au niveau du ganglion spinal (anciennement ganglion rachidien). Le syndrome associe au début des douleurs, des paresthésies et un déficit sensitif pur de topographie distale, qui diffuse ultérieurement à tout le corps.
-Lésion d'une racine
-Les symptômes vont dépendre de la localisation de la lésion. Une lésion au niveau de la racine antérieure engendrera un déficit moteur de topographie radiculaire, tandis qu'une lésion au niveau de la racine postérieure donnera une hypoesthésie dans le dermatome correspondant à cette racine. Une atteinte simultanée des deux racines résultera en un déficit sensitivomoteur de topographie radiculaire.
-Lésion d'un tronc nerveux
-Elle est à l'origine d'un syndrome tronculaire sensitivomoteur.
-Lésion diffuse du système nerveux périphérique
-Elle touche les racines et les troncs nerveux.
+          <t>Lésion du neurone moteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lésion est située au niveau de la corne antérieure de la moelle. Elle réalise un syndrome neurogène périphérique dit « moteur pur ». Il associe  des crampes et des fasciculations. Ces fasciculations témoignent en général d'une dégénérescence du corps cellulaire au niveau de la corne antérieure de la moelle.
 </t>
         </is>
       </c>
@@ -564,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_neurog%C3%A8ne_p%C3%A9riph%C3%A9rique</t>
+          <t>Syndrome_neurogène_périphérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +590,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Formes topographiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lésion du neurone sensitif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lésion est située au niveau du ganglion spinal (anciennement ganglion rachidien). Le syndrome associe au début des douleurs, des paresthésies et un déficit sensitif pur de topographie distale, qui diffuse ultérieurement à tout le corps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_neurogène_périphérique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_neurog%C3%A8ne_p%C3%A9riph%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Formes topographiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lésion d'une racine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les symptômes vont dépendre de la localisation de la lésion. Une lésion au niveau de la racine antérieure engendrera un déficit moteur de topographie radiculaire, tandis qu'une lésion au niveau de la racine postérieure donnera une hypoesthésie dans le dermatome correspondant à cette racine. Une atteinte simultanée des deux racines résultera en un déficit sensitivomoteur de topographie radiculaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_neurogène_périphérique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_neurog%C3%A8ne_p%C3%A9riph%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Formes topographiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lésion d'un tronc nerveux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est à l'origine d'un syndrome tronculaire sensitivomoteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_neurogène_périphérique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_neurog%C3%A8ne_p%C3%A9riph%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Formes topographiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lésion diffuse du système nerveux périphérique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle touche les racines et les troncs nerveux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_neurogène_périphérique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_neurog%C3%A8ne_p%C3%A9riph%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'électromyogramme montre un tracé dit « neurogène ».
 </t>
